--- a/DigitalAdressbuch/Dokumentation/210_Gantt-Diagramm.110_Melvin_Ben.xlsx
+++ b/DigitalAdressbuch/Dokumentation/210_Gantt-Diagramm.110_Melvin_Ben.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>Nr.</t>
-  </si>
-  <si>
-    <t>dd.mm</t>
   </si>
   <si>
     <t xml:space="preserve">Datum
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>US 17 "Als User möchte ich die Details einer Erinnerung sehen, wenn ich drauf drücke"</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -524,77 +524,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -603,18 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,6 +558,87 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -954,16 +954,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JA72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="76" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="49" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" style="5" customWidth="1"/>
     <col min="7" max="12" width="3.140625" style="6" customWidth="1"/>
@@ -998,129 +998,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="C1" s="69"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="90">
+        <v>5.2</v>
+      </c>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="90">
+        <v>6.2</v>
+      </c>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="90">
+        <v>7.2</v>
+      </c>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="90">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="90">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="90">
+        <v>19.2</v>
+      </c>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="90">
+        <v>20.2</v>
+      </c>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="90">
+        <v>21.2</v>
+      </c>
+      <c r="BK1" s="91"/>
+      <c r="BL1" s="91"/>
+      <c r="BM1" s="91"/>
+      <c r="BN1" s="91"/>
+      <c r="BO1" s="91"/>
+      <c r="BP1" s="91"/>
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="90">
+        <v>26.2</v>
+      </c>
+      <c r="BS1" s="91"/>
+      <c r="BT1" s="91"/>
+      <c r="BU1" s="91"/>
+      <c r="BV1" s="91"/>
+      <c r="BW1" s="91"/>
+      <c r="BX1" s="91"/>
+      <c r="BY1" s="92"/>
+      <c r="BZ1" s="90"/>
+      <c r="CA1" s="91"/>
+      <c r="CB1" s="91"/>
+      <c r="CC1" s="91"/>
+      <c r="CD1" s="91"/>
+      <c r="CE1" s="91"/>
+      <c r="CF1" s="91"/>
+      <c r="CG1" s="92"/>
+    </row>
+    <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="89"/>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="42" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45"/>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45"/>
-      <c r="CE1" s="45"/>
-      <c r="CF1" s="45"/>
-      <c r="CG1" s="46"/>
-    </row>
-    <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="42" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1332,8 +1330,8 @@
       <c r="BW2" s="4">
         <v>6</v>
       </c>
-      <c r="BX2" s="4">
-        <v>7</v>
+      <c r="BX2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="BY2" s="7">
         <v>8</v>
@@ -1364,26 +1362,26 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="87">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="61"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+        <v>8</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="44"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="9"/>
       <c r="U3" s="11"/>
       <c r="V3" s="9"/>
@@ -1404,12 +1402,12 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
@@ -1425,12 +1423,12 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" s="13"/>
       <c r="U5" s="13"/>
@@ -1444,12 +1442,12 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1533,28 +1531,28 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="87">
         <v>2</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="84"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="57"/>
       <c r="N7" s="15"/>
       <c r="U7" s="17"/>
       <c r="V7" s="15"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
       <c r="AK7" s="17"/>
       <c r="AL7" s="15"/>
       <c r="AS7" s="17"/>
@@ -1570,15 +1568,15 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="M8" s="87"/>
+      <c r="M8" s="60"/>
       <c r="U8" s="20"/>
       <c r="V8" s="18"/>
       <c r="AC8" s="20"/>
@@ -1598,16 +1596,16 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="85"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="58"/>
       <c r="U9" s="20"/>
       <c r="V9" s="18"/>
       <c r="AC9" s="20"/>
@@ -1627,12 +1625,12 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -1716,28 +1714,28 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="87">
         <v>3</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="9"/>
       <c r="M11" s="11"/>
       <c r="N11" s="9"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="82"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="55"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="9"/>
       <c r="AK11" s="11"/>
@@ -1755,12 +1753,12 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" s="13"/>
       <c r="U12" s="13"/>
@@ -1774,12 +1772,12 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13" s="13"/>
       <c r="U13" s="13"/>
@@ -1795,12 +1793,12 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1884,16 +1882,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="87">
         <v>4</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="15"/>
       <c r="M15" s="17"/>
@@ -1917,12 +1915,12 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="18"/>
       <c r="M16" s="20"/>
@@ -1946,12 +1944,12 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="18"/>
       <c r="M17" s="20"/>
@@ -1975,12 +1973,12 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
@@ -2064,18 +2062,18 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="87">
         <v>5</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="56"/>
+      <c r="B19" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="68"/>
       <c r="E19" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="9"/>
       <c r="M19" s="11"/>
@@ -2099,12 +2097,12 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M20" s="13"/>
       <c r="U20" s="13"/>
@@ -2118,15 +2116,15 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M21" s="13"/>
-      <c r="V21" s="88"/>
+      <c r="V21" s="61"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -2141,12 +2139,12 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -2230,18 +2228,18 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
+      <c r="A23" s="87">
         <v>6</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="63"/>
+      <c r="B23" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="79"/>
       <c r="E23" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="15"/>
       <c r="M23" s="17"/>
@@ -2265,12 +2263,12 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="18"/>
       <c r="M24" s="20"/>
@@ -2294,12 +2292,12 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="18"/>
       <c r="M25" s="20"/>
@@ -2307,7 +2305,7 @@
       <c r="U25" s="20"/>
       <c r="V25" s="18"/>
       <c r="AC25" s="39"/>
-      <c r="AD25" s="88"/>
+      <c r="AD25" s="61"/>
       <c r="AE25" s="39"/>
       <c r="AF25" s="39"/>
       <c r="AG25" s="39"/>
@@ -2327,12 +2325,12 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
@@ -2416,21 +2414,21 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="87">
         <v>7</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="56"/>
+      <c r="B27" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="68"/>
       <c r="E27" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="N27" s="90"/>
+      <c r="N27" s="63"/>
       <c r="U27" s="11"/>
       <c r="V27" s="9"/>
       <c r="AC27" s="11"/>
@@ -2450,15 +2448,15 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="91"/>
-      <c r="U28" s="91"/>
+        <v>9</v>
+      </c>
+      <c r="M28" s="64"/>
+      <c r="U28" s="64"/>
       <c r="AC28" s="13"/>
       <c r="AK28" s="13"/>
       <c r="AS28" s="13"/>
@@ -2469,18 +2467,18 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="39"/>
-      <c r="M29" s="94"/>
+      <c r="M29" s="67"/>
       <c r="S29" s="39"/>
       <c r="T29" s="39"/>
-      <c r="U29" s="94"/>
+      <c r="U29" s="67"/>
       <c r="AC29" s="13"/>
       <c r="AK29" s="13"/>
       <c r="AS29" s="13"/>
@@ -2491,12 +2489,12 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2510,10 +2508,10 @@
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="93"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="66"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
@@ -2580,18 +2578,18 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="87">
         <v>8</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="63"/>
+      <c r="B31" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="79"/>
       <c r="E31" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="15"/>
       <c r="M31" s="17"/>
@@ -2600,8 +2598,8 @@
       <c r="V31" s="15"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="15"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
       <c r="AK31" s="17"/>
       <c r="AL31" s="15"/>
       <c r="AS31" s="17"/>
@@ -2617,12 +2615,12 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="18"/>
       <c r="M32" s="20"/>
@@ -2646,12 +2644,12 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="18"/>
       <c r="M33" s="20"/>
@@ -2675,12 +2673,12 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
       <c r="E34" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
@@ -2764,18 +2762,18 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48">
+      <c r="A35" s="87">
         <v>9</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="9"/>
       <c r="M35" s="11"/>
@@ -2784,8 +2782,8 @@
       <c r="V35" s="9"/>
       <c r="AC35" s="11"/>
       <c r="AD35" s="9"/>
-      <c r="AJ35" s="82"/>
-      <c r="AK35" s="83"/>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="56"/>
       <c r="AL35" s="9"/>
       <c r="AS35" s="11"/>
       <c r="AT35" s="9"/>
@@ -2800,12 +2798,12 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M36" s="13"/>
       <c r="U36" s="13"/>
@@ -2819,12 +2817,12 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M37" s="13"/>
       <c r="U37" s="13"/>
@@ -2838,12 +2836,12 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -2927,18 +2925,18 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
+      <c r="A39" s="87">
         <v>10</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="15"/>
       <c r="M39" s="17"/>
@@ -2962,12 +2960,12 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
       <c r="E40" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="18"/>
       <c r="M40" s="20"/>
@@ -2991,12 +2989,12 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="81"/>
       <c r="E41" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="18"/>
       <c r="M41" s="20"/>
@@ -3007,7 +3005,7 @@
       <c r="AD41" s="18"/>
       <c r="AI41" s="39"/>
       <c r="AJ41" s="39"/>
-      <c r="AK41" s="86"/>
+      <c r="AK41" s="59"/>
       <c r="AL41" s="18"/>
       <c r="AS41" s="20"/>
       <c r="AT41" s="18"/>
@@ -3022,12 +3020,12 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
       <c r="E42" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="19"/>
@@ -3111,18 +3109,18 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48">
+      <c r="A43" s="87">
         <v>11</v>
       </c>
-      <c r="B43" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="56" t="s">
+      <c r="B43" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="56"/>
+      <c r="C43" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="68"/>
       <c r="E43" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="9"/>
       <c r="M43" s="11"/>
@@ -3146,12 +3144,12 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M44" s="13"/>
       <c r="U44" s="13"/>
@@ -3165,12 +3163,12 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M45" s="13"/>
       <c r="U45" s="13"/>
@@ -3187,12 +3185,12 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="A46" s="87"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -3276,27 +3274,27 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48">
+      <c r="A47" s="87">
         <v>12</v>
       </c>
-      <c r="B47" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="63"/>
+      <c r="B47" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="79"/>
       <c r="E47" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="15"/>
       <c r="M47" s="17"/>
       <c r="N47" s="15"/>
       <c r="U47" s="17"/>
       <c r="V47" s="15"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="82"/>
-      <c r="Z47" s="82"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="15"/>
       <c r="AK47" s="17"/>
@@ -3314,12 +3312,12 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" s="18"/>
       <c r="M48" s="20"/>
@@ -3343,12 +3341,12 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="18"/>
       <c r="M49" s="20"/>
@@ -3372,12 +3370,12 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="19"/>
@@ -3461,18 +3459,18 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+      <c r="A51" s="87">
         <v>13</v>
       </c>
-      <c r="B51" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="56"/>
+      <c r="B51" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="68"/>
       <c r="E51" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="9"/>
       <c r="M51" s="11"/>
@@ -3496,12 +3494,12 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M52" s="13"/>
       <c r="U52" s="13"/>
@@ -3515,12 +3513,12 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M53" s="13"/>
       <c r="U53" s="13"/>
@@ -3537,12 +3535,12 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -3626,18 +3624,18 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48">
+      <c r="A55" s="87">
         <v>14</v>
       </c>
-      <c r="B55" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="63"/>
+      <c r="B55" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="79"/>
       <c r="E55" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="15"/>
       <c r="M55" s="17"/>
@@ -3648,12 +3646,12 @@
       <c r="AD55" s="15"/>
       <c r="AK55" s="17"/>
       <c r="AL55" s="15"/>
-      <c r="AP55" s="82"/>
-      <c r="AQ55" s="82"/>
-      <c r="AR55" s="82"/>
-      <c r="AS55" s="83"/>
-      <c r="AT55" s="77"/>
-      <c r="AU55" s="82"/>
+      <c r="AP55" s="55"/>
+      <c r="AQ55" s="55"/>
+      <c r="AR55" s="55"/>
+      <c r="AS55" s="56"/>
+      <c r="AT55" s="50"/>
+      <c r="AU55" s="55"/>
       <c r="BA55" s="17"/>
       <c r="BB55" s="15"/>
       <c r="BI55" s="17"/>
@@ -3665,12 +3663,12 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" s="18"/>
       <c r="M56" s="20"/>
@@ -3694,12 +3692,12 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="81"/>
       <c r="E57" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" s="18"/>
       <c r="M57" s="20"/>
@@ -3725,12 +3723,12 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="19"/>
@@ -3814,18 +3812,18 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48">
+      <c r="A59" s="87">
         <v>15</v>
       </c>
-      <c r="B59" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="56"/>
+      <c r="B59" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="68"/>
       <c r="E59" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="9"/>
       <c r="M59" s="11"/>
@@ -3849,12 +3847,12 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
       <c r="E60" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M60" s="13"/>
       <c r="U60" s="13"/>
@@ -3868,12 +3866,12 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M61" s="13"/>
       <c r="U61" s="13"/>
@@ -3883,7 +3881,7 @@
       <c r="AP61" s="39"/>
       <c r="AQ61" s="39"/>
       <c r="AR61" s="39"/>
-      <c r="AS61" s="86"/>
+      <c r="AS61" s="59"/>
       <c r="BA61" s="13"/>
       <c r="BI61" s="13"/>
       <c r="BQ61" s="13"/>
@@ -3891,12 +3889,12 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -3980,18 +3978,18 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48">
+      <c r="A63" s="87">
         <v>16</v>
       </c>
-      <c r="B63" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="63"/>
+      <c r="B63" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="79"/>
       <c r="E63" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="15"/>
       <c r="M63" s="17"/>
@@ -4001,8 +3999,8 @@
       <c r="AC63" s="17"/>
       <c r="AD63" s="15"/>
       <c r="AK63" s="17"/>
-      <c r="AL63" s="77"/>
-      <c r="AM63" s="82"/>
+      <c r="AL63" s="50"/>
+      <c r="AM63" s="55"/>
       <c r="AS63" s="17"/>
       <c r="AT63" s="15"/>
       <c r="BA63" s="17"/>
@@ -4016,12 +4014,12 @@
       <c r="CG63" s="17"/>
     </row>
     <row r="64" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="65"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="81"/>
       <c r="E64" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" s="18"/>
       <c r="M64" s="20"/>
@@ -4045,12 +4043,12 @@
       <c r="CG64" s="20"/>
     </row>
     <row r="65" spans="1:261" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="18"/>
       <c r="M65" s="20"/>
@@ -4074,12 +4072,12 @@
       <c r="CG65" s="20"/>
     </row>
     <row r="66" spans="1:261" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
       <c r="E66" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="19"/>
@@ -4163,18 +4161,18 @@
       <c r="CG66" s="20"/>
     </row>
     <row r="67" spans="1:261" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="68">
+      <c r="A67" s="88">
         <v>17</v>
       </c>
-      <c r="B67" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="56"/>
+      <c r="B67" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="68"/>
       <c r="E67" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="9"/>
       <c r="M67" s="11"/>
@@ -4185,8 +4183,8 @@
       <c r="AD67" s="9"/>
       <c r="AK67" s="11"/>
       <c r="AL67" s="9"/>
-      <c r="AN67" s="82"/>
-      <c r="AO67" s="82"/>
+      <c r="AN67" s="55"/>
+      <c r="AO67" s="55"/>
       <c r="AS67" s="11"/>
       <c r="AT67" s="9"/>
       <c r="BA67" s="11"/>
@@ -4196,14 +4194,14 @@
       <c r="BQ67" s="11"/>
     </row>
     <row r="68" spans="1:261" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="57"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="69"/>
       <c r="E68" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="67"/>
+        <v>9</v>
+      </c>
+      <c r="F68" s="45"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -4211,7 +4209,7 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="13"/>
-      <c r="N68" s="67"/>
+      <c r="N68" s="45"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -4219,7 +4217,7 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
       <c r="U68" s="13"/>
-      <c r="V68" s="67"/>
+      <c r="V68" s="45"/>
       <c r="W68" s="12"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="12"/>
@@ -4227,7 +4225,7 @@
       <c r="AA68" s="12"/>
       <c r="AB68" s="12"/>
       <c r="AC68" s="13"/>
-      <c r="AD68" s="67"/>
+      <c r="AD68" s="45"/>
       <c r="AE68" s="12"/>
       <c r="AF68" s="12"/>
       <c r="AG68" s="12"/>
@@ -4235,7 +4233,7 @@
       <c r="AI68" s="12"/>
       <c r="AJ68" s="12"/>
       <c r="AK68" s="13"/>
-      <c r="AL68" s="67"/>
+      <c r="AL68" s="45"/>
       <c r="AM68" s="12"/>
       <c r="AN68" s="12"/>
       <c r="AO68" s="12"/>
@@ -4243,7 +4241,7 @@
       <c r="AQ68" s="12"/>
       <c r="AR68" s="12"/>
       <c r="AS68" s="13"/>
-      <c r="AT68" s="67"/>
+      <c r="AT68" s="45"/>
       <c r="AU68" s="12"/>
       <c r="AV68" s="12"/>
       <c r="AW68" s="12"/>
@@ -4251,7 +4249,7 @@
       <c r="AY68" s="12"/>
       <c r="AZ68" s="12"/>
       <c r="BA68" s="13"/>
-      <c r="BB68" s="67"/>
+      <c r="BB68" s="45"/>
       <c r="BC68" s="12"/>
       <c r="BD68" s="12"/>
       <c r="BE68" s="12"/>
@@ -4259,7 +4257,7 @@
       <c r="BG68" s="12"/>
       <c r="BH68" s="12"/>
       <c r="BI68" s="13"/>
-      <c r="BJ68" s="67"/>
+      <c r="BJ68" s="45"/>
       <c r="BK68" s="12"/>
       <c r="BL68" s="12"/>
       <c r="BM68" s="12"/>
@@ -4269,21 +4267,21 @@
       <c r="BQ68" s="13"/>
     </row>
     <row r="69" spans="1:261" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="57"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="67"/>
+        <v>10</v>
+      </c>
+      <c r="F69" s="45"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="13"/>
-      <c r="N69" s="67"/>
+      <c r="N69" s="45"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -4291,7 +4289,7 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="13"/>
-      <c r="V69" s="67"/>
+      <c r="V69" s="45"/>
       <c r="W69" s="12"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
@@ -4299,7 +4297,7 @@
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
       <c r="AC69" s="13"/>
-      <c r="AD69" s="67"/>
+      <c r="AD69" s="45"/>
       <c r="AE69" s="12"/>
       <c r="AF69" s="12"/>
       <c r="AG69" s="12"/>
@@ -4307,7 +4305,7 @@
       <c r="AI69" s="12"/>
       <c r="AJ69" s="12"/>
       <c r="AK69" s="13"/>
-      <c r="AL69" s="67"/>
+      <c r="AL69" s="45"/>
       <c r="AM69" s="12"/>
       <c r="AN69" s="12"/>
       <c r="AO69" s="12"/>
@@ -4315,7 +4313,7 @@
       <c r="AQ69" s="12"/>
       <c r="AR69" s="12"/>
       <c r="AS69" s="13"/>
-      <c r="AT69" s="67"/>
+      <c r="AT69" s="45"/>
       <c r="AU69" s="12"/>
       <c r="AV69" s="12"/>
       <c r="AW69" s="12"/>
@@ -4323,7 +4321,7 @@
       <c r="AY69" s="12"/>
       <c r="AZ69" s="12"/>
       <c r="BA69" s="13"/>
-      <c r="BB69" s="67"/>
+      <c r="BB69" s="45"/>
       <c r="BC69" s="12"/>
       <c r="BD69" s="12"/>
       <c r="BE69" s="12"/>
@@ -4331,7 +4329,7 @@
       <c r="BG69" s="12"/>
       <c r="BH69" s="12"/>
       <c r="BI69" s="13"/>
-      <c r="BJ69" s="67"/>
+      <c r="BJ69" s="45"/>
       <c r="BK69" s="12"/>
       <c r="BL69" s="12"/>
       <c r="BM69" s="12"/>
@@ -4339,7 +4337,7 @@
       <c r="BO69" s="12"/>
       <c r="BP69" s="12"/>
       <c r="BQ69" s="13"/>
-      <c r="BR69" s="67"/>
+      <c r="BR69" s="45"/>
       <c r="BS69" s="12"/>
       <c r="BT69" s="12"/>
       <c r="BU69" s="12"/>
@@ -4347,7 +4345,7 @@
       <c r="BW69" s="12"/>
       <c r="BX69" s="12"/>
       <c r="BY69" s="13"/>
-      <c r="BZ69" s="67"/>
+      <c r="BZ69" s="45"/>
       <c r="CA69" s="12"/>
       <c r="CB69" s="12"/>
       <c r="CC69" s="12"/>
@@ -4357,14 +4355,14 @@
       <c r="CG69" s="13"/>
     </row>
     <row r="70" spans="1:261" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
       <c r="E70" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="67"/>
+        <v>11</v>
+      </c>
+      <c r="F70" s="45"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -4372,7 +4370,7 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="13"/>
-      <c r="N70" s="67"/>
+      <c r="N70" s="45"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -4380,7 +4378,7 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
       <c r="U70" s="13"/>
-      <c r="V70" s="67"/>
+      <c r="V70" s="45"/>
       <c r="W70" s="12"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="12"/>
@@ -4388,7 +4386,7 @@
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
       <c r="AC70" s="13"/>
-      <c r="AD70" s="67"/>
+      <c r="AD70" s="45"/>
       <c r="AE70" s="12"/>
       <c r="AF70" s="12"/>
       <c r="AG70" s="12"/>
@@ -4396,7 +4394,7 @@
       <c r="AI70" s="12"/>
       <c r="AJ70" s="12"/>
       <c r="AK70" s="13"/>
-      <c r="AL70" s="67"/>
+      <c r="AL70" s="45"/>
       <c r="AM70" s="12"/>
       <c r="AN70" s="12"/>
       <c r="AO70" s="12"/>
@@ -4404,7 +4402,7 @@
       <c r="AQ70" s="12"/>
       <c r="AR70" s="12"/>
       <c r="AS70" s="13"/>
-      <c r="AT70" s="67"/>
+      <c r="AT70" s="45"/>
       <c r="AU70" s="12"/>
       <c r="AV70" s="12"/>
       <c r="AW70" s="12"/>
@@ -4412,7 +4410,7 @@
       <c r="AY70" s="12"/>
       <c r="AZ70" s="12"/>
       <c r="BA70" s="13"/>
-      <c r="BB70" s="67"/>
+      <c r="BB70" s="45"/>
       <c r="BC70" s="12"/>
       <c r="BD70" s="12"/>
       <c r="BE70" s="12"/>
@@ -4420,7 +4418,7 @@
       <c r="BG70" s="12"/>
       <c r="BH70" s="12"/>
       <c r="BI70" s="13"/>
-      <c r="BJ70" s="67"/>
+      <c r="BJ70" s="45"/>
       <c r="BK70" s="12"/>
       <c r="BL70" s="12"/>
       <c r="BM70" s="12"/>
@@ -4428,7 +4426,7 @@
       <c r="BO70" s="12"/>
       <c r="BP70" s="12"/>
       <c r="BQ70" s="13"/>
-      <c r="BR70" s="67"/>
+      <c r="BR70" s="45"/>
       <c r="BS70" s="12"/>
       <c r="BT70" s="12"/>
       <c r="BU70" s="12"/>
@@ -4436,7 +4434,7 @@
       <c r="BW70" s="12"/>
       <c r="BX70" s="12"/>
       <c r="BY70" s="13"/>
-      <c r="BZ70" s="67"/>
+      <c r="BZ70" s="45"/>
       <c r="CA70" s="12"/>
       <c r="CB70" s="12"/>
       <c r="CC70" s="12"/>
@@ -4446,11 +4444,11 @@
       <c r="CG70" s="13"/>
     </row>
     <row r="71" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="B71" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
+      <c r="B71" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
       <c r="G71" s="30"/>
@@ -4460,7 +4458,7 @@
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71" s="29"/>
       <c r="O71" s="30"/>
@@ -4712,9 +4710,9 @@
       <c r="JA71" s="10"/>
     </row>
     <row r="72" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="B72" s="60"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
       <c r="E72" s="31"/>
       <c r="F72" s="32"/>
       <c r="G72" s="33"/>
@@ -4975,25 +4973,32 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:D66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:D70"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="C43:D46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:D50"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
@@ -5010,35 +5015,28 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:D18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C43:D46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:D50"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:D66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:D70"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
